--- a/XLDATA/DATA.xlsx
+++ b/XLDATA/DATA.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15195" windowHeight="3765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="WebElement" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>browser</t>
   </si>
@@ -33,13 +33,28 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>http://login.salesforce.com</t>
-  </si>
-  <si>
-    <t>naveen.techlead@bsitsoftware.com</t>
-  </si>
-  <si>
-    <t>BSIT@N2021</t>
+    <t>login</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>http://qualitypointtech.net/timesheetdemo/index.php</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -62,7 +77,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,6 +87,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,11 +128,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -407,16 +434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
@@ -432,12 +459,12 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="21.75" customHeight="1">
+    <row r="2" spans="1:7" ht="35.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -450,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -463,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -471,11 +498,19 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1" display="naveen.techlead@bsitsoftware.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="BSIT@N2021"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -483,12 +518,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="4" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="24" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="naveen.techlead@bsitsoftware.com"/>
+    <hyperlink ref="C2" r:id="rId2" display="BSIT@N2021"/>
+    <hyperlink ref="D1" r:id="rId3" display="naveen.techlead@bsitsoftware.com"/>
+    <hyperlink ref="D2" r:id="rId4" display="BSIT@N2021"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/XLDATA/DATA.xlsx
+++ b/XLDATA/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15195" windowHeight="3765" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15315" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN DATA" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:K16"/>
 </workbook>
 </file>
 
@@ -436,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
